--- a/results/I3_N5_M2_T45_C200_DepLowerLeft_s0_P1_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepLowerLeft_s0_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>889.8828342913894</v>
+        <v>830.6646491060287</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.00599980354309082</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.17693588083531</v>
+        <v>24.77074632555534</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.4704938112769</v>
+        <v>7.797747709578076</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.59639222182442</v>
+        <v>7.691650490051502</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>795.0000000000065</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.58</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>39.81299701176103</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.37739353073907</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>17.7338617375427</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43.24776339128116</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.80519234793928</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1018,10 +1018,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1032,10 +1032,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1043,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1099,29 +1099,15 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1224,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>249.8050000000006</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8">
@@ -1235,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>278.4250000000007</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9">
@@ -1246,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>278.8300000000007</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10">
@@ -1257,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>289.5250000000007</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11">
@@ -1268,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>282.8700000000006</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12">
@@ -1279,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>181.63</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
@@ -1290,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>202.295</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
@@ -1301,7 +1287,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>202.99</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
@@ -1312,7 +1298,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>212.615</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
@@ -1323,7 +1309,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>207.02</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17">
@@ -1334,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18">
@@ -1345,7 +1331,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19">
@@ -1356,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20">
@@ -1367,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21">
@@ -1378,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22">
@@ -1389,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>208.06</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1400,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>189.4349999999993</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1411,7 +1397,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>206.715</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -1422,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>193.8399999999993</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1433,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>203.27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -1444,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>70.22999999999979</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
@@ -1455,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>80.22999999999978</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
@@ -1466,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>86.27499999999978</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30">
@@ -1477,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>87.40499999999977</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31">
@@ -1488,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>84.38999999999977</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32">
@@ -1499,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>249.8050000000006</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33">
@@ -1510,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>278.4250000000007</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34">
@@ -1521,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>278.8300000000007</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35">
@@ -1532,7 +1518,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>289.5250000000007</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36">
@@ -1543,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>282.8700000000006</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37">
@@ -1554,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>208.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1565,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>189.4349999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1576,7 +1562,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>206.715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1587,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>193.8399999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1598,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>203.27</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1645,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>49.80500000000063</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1656,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>78.42500000000069</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -1667,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>78.83000000000067</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -1678,7 +1664,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>89.52500000000066</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1689,7 +1675,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>82.87000000000063</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -1700,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1722,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>6.715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1744,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.27</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1956,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1967,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1978,7 +1964,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -1989,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -2000,7 +1986,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -2011,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -2022,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -2033,7 +2019,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2044,7 +2030,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -2055,7 +2041,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2069,7 +2055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2099,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2110,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2121,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2129,10 +2115,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2140,10 +2126,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2151,10 +2137,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2162,10 +2148,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2173,56 +2159,12 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
         <v>1</v>
       </c>
     </row>
